--- a/qa_data/qa_catalog.xlsx
+++ b/qa_data/qa_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\enterpriseAI_michi\enterprise-ai-project\qa_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0790D1B-EBEF-44AD-994C-E740CBEB2BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628DCC0-6FB4-4E34-BCEC-BC8B764BC43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94F42E5F-4211-4F61-8149-E3D2516D08C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>answer</t>
   </si>
@@ -144,6 +144,16 @@
   </si>
   <si>
     <t>Managerial Analytics &amp; Decision Making, Real-Time Process Analytics, Business Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+_x000D_
+V (2) + Ü (2)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does the module IT-Management consist of? </t>
   </si>
 </sst>
 </file>
@@ -179,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -221,8 +232,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB93BCF-3715-4AF6-8559-6306BA8C1164}" name="Tabelle1" displayName="Tabelle1" ref="A1:C75" totalsRowShown="0">
   <autoFilter ref="A1:C75" xr:uid="{8AB93BCF-3715-4AF6-8559-6306BA8C1164}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63A35CB9-7FB5-447E-94A8-ED9279976FAB}" name="question" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{20323A4E-DE89-4383-A496-579125FD098F}" name="answer" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63A35CB9-7FB5-447E-94A8-ED9279976FAB}" name="question" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{20323A4E-DE89-4383-A496-579125FD098F}" name="answer" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3D58B9A9-4DAC-4EFC-B669-A6346CDBEFC1}" name="table"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -526,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE37C4E-898C-40DE-BDF9-F851BE9C431B}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,6 +725,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
